--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>hello</t>
   </si>
@@ -37,6 +37,21 @@
   </si>
   <si>
     <t>chanti@123</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>CHANTI</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>TO</t>
   </si>
 </sst>
 </file>
@@ -386,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,15 +413,30 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>123655</v>
       </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8956</v>
       </c>
@@ -417,7 +447,7 @@
         <v>12365</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -425,7 +455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
